--- a/E-27 Documentation/E-27 BOM.xlsx
+++ b/E-27 Documentation/E-27 BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremie\Documents\SVN\Design\Electronic Design\E-27 Line Follower\Production\Manufacturing Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D41536-CDEE-4A0F-931A-A8C370B87AA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8336F703-375A-4E4A-B1C1-817E816CD21D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27CBD8A3-62A9-4F36-A53F-CC7B60137524}"/>
   </bookViews>
@@ -80,12 +80,6 @@
     <t>E-27 Line Sensor</t>
   </si>
   <si>
-    <t>Lien Sensor Board</t>
-  </si>
-  <si>
-    <t>Infrared Reflective Sensor</t>
-  </si>
-  <si>
     <t>U1, U2, U3</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>Line Sensor Board</t>
+  </si>
+  <si>
+    <t>Reflective Optical Sensor with Transistor Output</t>
   </si>
 </sst>
 </file>
@@ -396,9 +396,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -415,6 +412,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -737,7 +737,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,11 +770,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
@@ -829,18 +829,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -857,21 +857,21 @@
       <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="G6" s="34" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>22</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -889,14 +889,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="18"/>
@@ -916,14 +916,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="24"/>
@@ -943,14 +943,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="24"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="29"/>
@@ -996,7 +996,7 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="18" t="s">
@@ -1006,22 +1006,22 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>1</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
